--- a/report/reliability/comb/Centro de Tecnologia - CTEC-Presencial.xlsx
+++ b/report/reliability/comb/Centro de Tecnologia - CTEC-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7750914677533215</v>
+        <v>0.7417640441158828</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7941803134275334</v>
+        <v>0.769725980939497</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8934476623711322</v>
+        <v>0.882280842169572</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24331381312040518</v>
+        <v>0.20453548443725444</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.858621722018378</v>
+        <v>3.3426523064994864</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.01861024972783763</v>
+        <v>0.020005763498899532</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.7074574574574575</v>
+        <v>2.051975051975052</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7275076251517167</v>
+        <v>0.6122046687540303</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20082548778585957</v>
+        <v>0.14171740556499107</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7482022154193497</v>
+        <v>0.7439074630016567</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7622329905835132</v>
+        <v>0.7685205044060642</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8652657173845226</v>
+        <v>0.8829710916113771</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2256682770470441</v>
+        <v>0.21671207767740056</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.2057979467132056</v>
+        <v>3.3200370617456865</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02082402473128675</v>
+        <v>0.020302894497871562</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03869536567650691</v>
+        <v>0.05705540090807327</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16816077733922485</v>
+        <v>0.16278367293974155</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7496636938395965</v>
+        <v>0.7172869577559</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7663694657228581</v>
+        <v>0.7415040192232107</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8705468599427713</v>
+        <v>0.862343984124412</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22970603316728988</v>
+        <v>0.1929263818861254</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.280262436988479</v>
+        <v>2.868532102491364</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02072914863426216</v>
+        <v>0.021791510351592866</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04003047951313205</v>
+        <v>0.05770605199287913</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16816077733922485</v>
+        <v>0.10902706020857815</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7538454016091036</v>
+        <v>0.7190465481589635</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7679744354360317</v>
+        <v>0.7436281844573565</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8706683821677628</v>
+        <v>0.8626370002349119</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23129979055816735</v>
+        <v>0.1946624791846757</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.309869914029686</v>
+        <v>2.9005847732652406</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.020419265879909568</v>
+        <v>0.021653823916123825</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03970063638737814</v>
+        <v>0.05730008380172931</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17892907165022798</v>
+        <v>0.11151890231775283</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7527481885770484</v>
+        <v>0.7273623576371046</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.769543674161659</v>
+        <v>0.7448677068800594</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8748289534143184</v>
+        <v>0.8607544963918338</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23287303464667805</v>
+        <v>0.19568539835202023</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.3392169703402876</v>
+        <v>2.9195351861235737</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02046652287468244</v>
+        <v>0.02144627042362306</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04050358427600412</v>
+        <v>0.04386873116499021</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20206893613058927</v>
+        <v>0.14171740556499107</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7545131042090119</v>
+        <v>0.7048658933320667</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7821010563721678</v>
+        <v>0.7426305507634845</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8542213626167635</v>
+        <v>0.8589995057231192</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24602191106610963</v>
+        <v>0.19384446777283748</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.589283377655941</v>
+        <v>2.885465050208922</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.020371424844898865</v>
+        <v>0.022919180371924773</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03741294367530308</v>
+        <v>0.043890187336023644</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20206893613058927</v>
+        <v>0.14171740556499107</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7561658862996252</v>
+        <v>0.7061890259924498</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7814617013807046</v>
+        <v>0.7420241858221996</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8539534853582985</v>
+        <v>0.8582409300056855</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24532739226898348</v>
+        <v>0.19334956365869185</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.5758569839607386</v>
+        <v>2.876332373199866</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.020238971840463135</v>
+        <v>0.02283717519317561</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.037626120858809904</v>
+        <v>0.043935830805417006</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1995820394411299</v>
+        <v>0.14171740556499107</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7703349507439451</v>
+        <v>0.7434662886275033</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.793521012729653</v>
+        <v>0.7774685970658695</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8844023016238869</v>
+        <v>0.8856610420562718</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25891530763565296</v>
+        <v>0.2254940403615404</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.8431078300993398</v>
+        <v>3.4937477893670636</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.019030474659383064</v>
+        <v>0.02029357922416019</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04357395792531352</v>
+        <v>0.05449283053039978</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20868442866783454</v>
+        <v>0.16278367293974155</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7805634828811463</v>
+        <v>0.7315013930840761</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7965027575059717</v>
+        <v>0.7605302759646999</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8852973673876693</v>
+        <v>0.8706838727913315</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2624415137879362</v>
+        <v>0.209272244070578</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.9140715016290444</v>
+        <v>3.175893232551564</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.018084535486991255</v>
+        <v>0.02051166463435692</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.042237479058044924</v>
+        <v>0.05736955657744751</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20868442866783454</v>
+        <v>0.15751622137076687</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7798712474120083</v>
+        <v>0.7446597722375783</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7963158960443867</v>
+        <v>0.7651404820092618</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8998093622200092</v>
+        <v>0.8759465359627993</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2622184979957912</v>
+        <v>0.21352034461550634</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.9095632922730137</v>
+        <v>3.257864482372971</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.018360329925845704</v>
+        <v>0.019277305123637626</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.045974691504863066</v>
+        <v>0.05736871532915589</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20479973149022604</v>
+        <v>0.16278367293974155</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.770015525563499</v>
+        <v>0.7425487353764956</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7923091245515769</v>
+        <v>0.7683541779753142</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8979261286140092</v>
+        <v>0.8873876479731009</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2575016640961094</v>
+        <v>0.21655345187775382</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8148480179541395</v>
+        <v>3.3169351869140704</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.019187356562593946</v>
+        <v>0.019791486231953596</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04718857054604435</v>
+        <v>0.061999386931270266</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20206893613058927</v>
+        <v>0.15331985707996432</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7471236317961601</v>
+        <v>0.7338757316449165</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7697923999670164</v>
+        <v>0.7675740586675701</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8650040060044631</v>
+        <v>0.8859403713684095</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23312376816588223</v>
+        <v>0.2158116285610123</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3439052396911406</v>
+        <v>3.3024457350470127</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.021006960887565682</v>
+        <v>0.020556428672896122</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0432218536211424</v>
+        <v>0.06183186464086164</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1677475859138412</v>
+        <v>0.15138583586288096</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7485112235800296</v>
+        <v>0.7058529475407301</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7713166074034968</v>
+        <v>0.7447659027976512</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8665633696625794</v>
+        <v>0.8535692585653867</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23466856700921807</v>
+        <v>0.19560110812183634</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3728579878313845</v>
+        <v>2.917971818660276</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.020915894407875533</v>
+        <v>0.022772299358916462</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04323069975529038</v>
+        <v>0.057494033528858055</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16495102981153553</v>
+        <v>0.10902706020857815</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7067716954404741</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7446776905548169</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.854819302295496</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19552811154432903</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.916618184180639</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.022726791802573434</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05773990001650505</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.10902706020857815</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>333.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6416024831741124</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6996221174643246</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6954289572622805</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5617227231799166</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.6726726726726726</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0547102059038374</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6175570413897647</v>
+        <v>0.26753299365128597</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6661873964461517</v>
+        <v>0.3955601597175822</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6517043000344371</v>
+        <v>0.3240474667369817</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.524654152800366</v>
+        <v>0.24950715414461397</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.186186186186186</v>
+        <v>0.975975975975976</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.159632856908018</v>
+        <v>0.15335414372299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5928535391675512</v>
+        <v>0.559289937278528</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6529902562158508</v>
+        <v>0.629821263041302</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6375993645097776</v>
+        <v>0.609508812136234</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5137597340154342</v>
+        <v>0.45771934611711274</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.7777777777777777</v>
+        <v>3.6726726726726726</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.965606675449875</v>
+        <v>1.0547102059038374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5883987993681862</v>
+        <v>0.5440830273963406</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6399629767996674</v>
+        <v>0.6127227483623698</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6156429672449258</v>
+        <v>0.5923264164931428</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4885391486116307</v>
+        <v>0.4289128180723978</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.147147147147147</v>
+        <v>4.186186186186186</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1844751135197227</v>
+        <v>1.159632856908018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6022327211241757</v>
+        <v>0.6374067862045635</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.531083440321034</v>
+        <v>0.6026481987315365</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5567782529717294</v>
+        <v>0.6348277462741315</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.459853300339702</v>
+        <v>0.6061566761159564</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7957957957957958</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6483965503150948</v>
+        <v>0.39924219978996367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.608491025651881</v>
+        <v>0.6593810949328938</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5368344172330265</v>
+        <v>0.6207791978162853</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.562861863870847</v>
+        <v>0.6564108358289015</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4547004987669788</v>
+        <v>0.5154809384809818</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8588588588588588</v>
+        <v>0.7957957957957958</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7753044591816525</v>
+        <v>1.6483965503150948</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.43591056775009435</v>
+        <v>0.6652869464649823</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.42431940989388</v>
+        <v>0.625653420745754</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.36141178432416887</v>
+        <v>0.6620082299703908</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.30465386211406786</v>
+        <v>0.5096308086234939</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.8228228228228227</v>
+        <v>0.8588588588588588</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2924089613326624</v>
+        <v>1.7753044591816525</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.41366130844012705</v>
+        <v>0.22726962655853225</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3951205887062897</v>
+        <v>0.3090681652942379</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3307011585055136</v>
+        <v>0.22941538648999302</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24622325765061556</v>
+        <v>0.1979691101155363</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.963963963963964</v>
+        <v>0.9369369369369369</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5921187364598939</v>
+        <v>0.24344215608737305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4188813295737846</v>
+        <v>0.4600031356590166</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.39696727547264155</v>
+        <v>0.4688337626667307</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.2901308215990204</v>
+        <v>0.4248739368385185</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2520575885480509</v>
+        <v>0.3178038961932754</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6876876876876876</v>
+        <v>2.8228228228228227</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5920732859860316</v>
+        <v>1.2924089613326624</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.41909641245076784</v>
+        <v>0.4317060856285071</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4360251137442904</v>
+        <v>0.42699497310943535</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3341806964966028</v>
+        <v>0.3709646034614099</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3009397381043925</v>
+        <v>0.2487499190285435</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.6936936936936937</v>
+        <v>2.963963963963964</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.1574233388920054</v>
+        <v>1.5921187364598939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6341411025425719</v>
+        <v>0.4448313523232732</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.637886772835178</v>
+        <v>0.39712243711181644</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6282464283414042</v>
+        <v>0.2927486326495191</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5315980560084171</v>
+        <v>0.2636487092420833</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.5435435435435436</v>
+        <v>1.6876876876876876</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2994653889365548</v>
+        <v>1.5920732859860316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>333.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6233093698890849</v>
+        <v>0.42080498573197234</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6250950348455677</v>
+        <v>0.4044285235166919</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6135781926383771</v>
+        <v>0.3051931040045494</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5206474957491202</v>
+        <v>0.29047234286204404</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.6936936936936937</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.1574233388920054</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>333.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6397768104585349</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6034783582734546</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5964551992162369</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5269334783174873</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.5435435435435436</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2994653889365548</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>333.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6339827273273558</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6041972886312537</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5957456886601689</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5220457207617876</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.339339339339339</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.278476426005333</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.024024024024024024</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.042042042042042045</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.006006006006006006</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.26126126126126126</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4984984984984985</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.16816816816816818</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.024024024024024024</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.003003003003003003</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04504504504504504</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2012012012012012</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.14414414414414414</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5825825825825826</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.012012012012012012</v>
+        <v>0.024024024024024024</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03303303303303303</v>
+        <v>0.975975975975976</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.015015015015015015</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.23723723723723725</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5105105105105106</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1921921921921922</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.012012012012012012</v>
+        <v>0.024024024024024024</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.018018018018018018</v>
+        <v>0.042042042042042045</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04804804804804805</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.26426426426426425</v>
+        <v>0.26126126126126126</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.04804804804804805</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6096096096096096</v>
+        <v>0.16816816816816818</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8018018018018018</v>
+        <v>0.024024024024024024</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.006006006006006006</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.036036036036036036</v>
+        <v>0.2012012012012012</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.0990990990990991</v>
+        <v>0.14414414414414414</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.057057057057057055</v>
+        <v>0.5825825825825826</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8018018018018018</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.003003003003003003</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.003003003003003003</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.03003003003003003</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05105105105105105</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06306306306306306</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16216216216216217</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4294294294294294</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2732732732732733</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04504504504504504</v>
+        <v>0.057057057057057055</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06306306306306306</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15315315315315314</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.22522522522522523</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.09309309309309309</v>
+        <v>0.03003003003003003</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.24624624624624625</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.21921921921921922</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3993993993993994</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.0990990990990991</v>
+        <v>0.9369369369369369</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08708708708708708</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.24324324324324326</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.17117117117117117</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.10510510510510511</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.04804804804804805</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.09309309309309309</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5555555555555556</v>
+        <v>0.4294294294294294</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1981981981981982</v>
+        <v>0.2732732732732733</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.12612612612612611</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.05105105105105105</v>
+        <v>0.15315315315315314</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.26426426426426425</v>
+        <v>0.22522522522522523</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2702702702702703</v>
+        <v>0.09309309309309309</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2882882882882883</v>
+        <v>0.24624624624624625</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.21921921921921922</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.14414414414414414</v>
+        <v>0.3993993993993994</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.05105105105105105</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.34534534534534533</v>
+        <v>0.08708708708708708</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.24024024024024024</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.21921921921921922</v>
+        <v>0.17117117117117117</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.10510510510510511</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.04804804804804805</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09309309309309309</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.12612612612612611</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05105105105105105</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.26426426426426425</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2882882882882883</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.14414414414414414</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.05105105105105105</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.34534534534534533</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.24024024024024024</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.21921921921921922</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8739788816801024</v>
+        <v>0.874013618050868</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8770451238923888</v>
+        <v>0.9921385678015964</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8832412015186363</v>
+        <v>0.9886989493535606</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6407099034818117</v>
+        <v>0.9767807761133577</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.133065004471973</v>
+        <v>126.20328494381137</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.011432674470967278</v>
+        <v>0.001293572822805122</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.945945945945946</v>
+        <v>0.6176176176176176</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9324343496174232</v>
+        <v>1.2668925223749625</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6621066773800217</v>
+        <v>0.9745086390537555</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8234485510941623</v>
+        <v>0.9902376546716241</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8269376203565622</v>
+        <v>0.9916115389316271</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7750906735958227</v>
+        <v>0.9833626397123081</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6143097916084993</v>
+        <v>0.9833626397123081</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.778263317887512</v>
+        <v>118.21137761136133</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.016513948317546517</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.009113094574105777</v>
-      </c>
+        <v>9.904304263117915E-4</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6268945477779613</v>
+        <v>0.9833626397123081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8421652729774632</v>
+        <v>0.5887745621508675</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8487333045576605</v>
+        <v>0.9870897698586618</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.80131361287052</v>
+        <v>0.9745086390537556</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6516019554640377</v>
+        <v>0.9745086390537556</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.610840522930473</v>
+        <v>76.45795303819031</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015143480585159021</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007060145990418755</v>
-      </c>
+        <v>0.004763292423006498</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6973188069820822</v>
+        <v>0.9745086390537555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8421084004267118</v>
+        <v>0.6158821071689706</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8441965067602738</v>
+        <v>0.9860434197845713</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.79726655545743</v>
+        <v>0.9724710495740094</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6436352622870837</v>
+        <v>0.9724710495740094</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.4183413298786265</v>
+        <v>70.65079013371191</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.015162650409934838</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.009691947423274075</v>
-      </c>
+        <v>0.0050122324465512996</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6268945477779613</v>
+        <v>0.9724710495740093</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.847515096078618</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.849688017568466</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8182809969177265</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6532926045676257</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.652829560381137</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.014560011112565881</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01540144361133692</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6973188069820822</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>333.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.982011651789665</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9900189379301995</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9807130234637135</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9775966467236419</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.39924219978996367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>333.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8724470719545144</v>
+        <v>0.9951952102883268</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8778776962985592</v>
+        <v>0.99299338270233</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8434754765546753</v>
+        <v>0.9888525789951893</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7699377315096099</v>
+        <v>0.9851342777377421</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6726726726726726</v>
+        <v>0.7957957957957958</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0547102059038374</v>
+        <v>1.6483965503150948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>333.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8547737576463004</v>
+        <v>0.9959647847280617</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8451542453021518</v>
+        <v>0.9936778978282605</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7923284814892367</v>
+        <v>0.990256961583218</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7234463690174469</v>
+        <v>0.9859056254057977</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.186186186186186</v>
+        <v>0.8588588588588588</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.159632856908018</v>
+        <v>1.7753044591816525</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>333.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8388500496140759</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8521449282453393</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8010634010353651</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7291269630235683</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.965606675449875</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>333.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8512932132223862</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8436707198808945</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7761968210746958</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7131116202036515</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.147147147147147</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1844751135197227</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8018018018018018</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8018018018018018</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.006006006006006006</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.036036036036036036</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0990990990990991</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.057057057057057055</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.024024024024024024</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.042042042042042045</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.006006006006006006</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.26126126126126126</v>
+        <v>0.03003003003003003</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4984984984984985</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.16816816816816818</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.024024024024024024</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.003003003003003003</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04504504504504504</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2012012012012012</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.14414414414414414</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5825825825825826</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.012012012012012012</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03303303303303303</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.015015015015015015</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.23723723723723725</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5105105105105106</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1921921921921922</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.012012012012012012</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.018018018018018018</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04804804804804805</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.26426426426426425</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.04804804804804805</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6096096096096096</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7795468446875926</v>
+        <v>0.6673727017557078</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.789842418448363</v>
+        <v>0.7977285041896205</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6526773293736216</v>
+        <v>0.7344026495709162</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6526773293736214</v>
+        <v>0.5679630377629733</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.758334163425333</v>
+        <v>3.9438503235149636</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.023283074819966332</v>
+        <v>0.017164801582352045</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.8933933933933935</v>
+        <v>2.2412412412412412</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3125500167927802</v>
+        <v>0.9239094266804676</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6526773293736214</v>
+        <v>0.5675042060904615</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6526773293736214</v>
+        <v>0.7795468446875926</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6526773293736214</v>
+        <v>0.789842418448363</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.4259876962782829</v>
+        <v>0.6526773293736216</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6526773293736214</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6526773293736214</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.758334163425333</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.023283074819966332</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6526773293736214</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4259876962782829</v>
+        <v>0.25257731958762886</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6526773293736214</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4259876962782829</v>
-      </c>
+        <v>0.6520254867660213</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4837075778248371</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.483707577824837</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.8737736873493334</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02165182514281458</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6526773293736214</v>
+        <v>0.48370757782483687</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.34226861323993485</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7240863582827421</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5675042060904617</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5675042060904616</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.6243224284819835</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.02206965065770374</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5675042060904615</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>333.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8881752072154009</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9090317181962414</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7343926149042842</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6526773293736217</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.8228228228228227</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2924089613326624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>333.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9278293149363318</v>
+        <v>0.6302961180701028</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9090317181962414</v>
+        <v>0.8103203889977061</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.734392614904284</v>
+        <v>0.6433579479271316</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6526773293736216</v>
+        <v>0.5727657612781177</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9369369369369369</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.24344215608737305</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>333.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8910336671866819</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.877070997529463</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7970002958153384</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.683242916883422</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.8228228228228227</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2924089613326624</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>333.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9212301219599959</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8439675818093721</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7289479373812529</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6654591712364484</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.963963963963964</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5921187364598939</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.06306306306306306</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9369369369369369</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.06306306306306306</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02702702702702703</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4294294294294294</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2732732732732733</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04504504504504504</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.06306306306306306</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15315315315315314</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.22522522522522523</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09309309309309309</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.24624624624624625</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.21921921921921922</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9078840197145084</v>
+        <v>0.7070314156511548</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9079497457632957</v>
+        <v>0.8311041799843824</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8314175490009048</v>
+        <v>0.7824042831074416</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8314175490009048</v>
+        <v>0.6212508399028248</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.863631049062956</v>
+        <v>4.9208096441198546</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.010091516268124026</v>
+        <v>0.011837249487088378</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.4414414414414414</v>
+        <v>2.944944944944945</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2334544840329733</v>
+        <v>0.722074005057949</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8314175490009048</v>
+        <v>0.5672237621823962</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8314175490009049</v>
+        <v>0.8545393979515679</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8314175490009049</v>
+        <v>0.8567377781390808</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6912551407866722</v>
+        <v>0.7493799425511893</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8314175490009049</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8314175490009049</v>
-      </c>
+        <v>0.7493799425511893</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.98020725220088</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.015780856953124523</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8314175490009049</v>
+        <v>0.7493799425511893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6912551407866722</v>
+        <v>0.256997015682072</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8314175490009049</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6912551407866722</v>
-      </c>
+        <v>0.7238580423162084</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.567223762182396</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5672237621823961</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.62132581512692</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.01762560503541956</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8314175490009049</v>
+        <v>0.5672237621823962</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.26962081128747806</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7072995301796734</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5471488149748884</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5471488149748887</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.416461888885411</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.019317184384711524</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5471488149748887</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>333.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9576409815208845</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9569267341340467</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8725458984453417</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8314175490009049</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.5435435435435436</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2994653889365548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>333.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9562066477612369</v>
+        <v>0.640843313910958</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9569267341340467</v>
+        <v>0.8151818500896493</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8725458984453417</v>
+        <v>0.6407773632307683</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8314175490009048</v>
+        <v>0.5961754165794613</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.339339339339339</v>
+        <v>0.975975975975976</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.278476426005333</v>
+        <v>0.15335414372299</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>333.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9267855896305454</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8854109164909633</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.819468294822112</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7605051144354863</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.6726726726726726</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0547102059038374</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>333.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9403457404165134</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8931506747444826</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8340143005103857</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7657021154642957</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.186186186186186</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.159632856908018</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.12612612612612611</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05105105105105105</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.26426426426426425</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2882882882882883</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.024024024024024024</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.975975975975976</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.024024024024024024</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.042042042042042045</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.006006006006006006</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.26126126126126126</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4984984984984985</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.16816816816816818</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.024024024024024024</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.003003003003003003</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04504504504504504</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2012012012012012</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.14414414414414414</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.05105105105105105</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.34534534534534533</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.24024024024024024</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.21921921921921922</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.5825825825825826</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9902376546716241</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9916115389316271</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>118.21137761136133</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>9.904304263117915E-4</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8273273273273273</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7047252908409893</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9833626397123081</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5253898853582126</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5449834574340724</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3745548187878278</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3745548187878276</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.1977222945803327</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04910077584942335</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.190690690690691</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1461579890954356</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.37455481878782754</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9670020811819586</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9833626397123081</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.14029131227718294</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.37455481878782754</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9670020811819586</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9833626397123081</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9670020811819586</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9833626397123081</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.14029131227718294</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.14029131227718294</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.37455481878782754</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>333.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9955165937365072</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9958319737064852</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9875132203910657</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9833626397123082</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7957957957957958</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6483965503150948</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8836442245384317</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.829021959536606</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5073687668082314</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.6876876876876876</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5920732859860316</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>333.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9961358760966958</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9958319737064852</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9875132203910657</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9833626397123083</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8588588588588588</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7753044591816525</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7650524956884536</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.829021959536606</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5073687668082307</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.37455481878782754</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.6936936936936937</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.1574233388920054</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8018018018018018</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.006006006006006006</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.3993993993993994</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.0990990990990991</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08708708708708708</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.17117117117117117</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.036036036036036036</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.0990990990990991</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.057057057057057055</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8018018018018018</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.003003003003003003</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.003003003003003003</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.03003003003003003</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.05105105105105105</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.10510510510510511</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.04804804804804805</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.09309309309309309</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5253898853582126</v>
+        <v>0.9078840197145084</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5449834574340724</v>
+        <v>0.9079497457632957</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3745548187878278</v>
+        <v>0.8314175490009048</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3745548187878276</v>
+        <v>0.8314175490009048</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.1977222945803327</v>
+        <v>9.863631049062956</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04910077584942335</v>
+        <v>0.010091516268124026</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.190690690690691</v>
+        <v>2.4414414414414414</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1461579890954356</v>
+        <v>1.2334544840329733</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009048</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.14029131227718294</v>
+        <v>0.6912551407866722</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.14029131227718294</v>
+        <v>0.6912551407866722</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.14029131227718294</v>
+        <v>0.6912551407866722</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>333.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8836442245384317</v>
+        <v>0.9576409815208845</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.829021959536606</v>
+        <v>0.9569267341340467</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5073687668082314</v>
+        <v>0.8725458984453417</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009049</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.6876876876876876</v>
+        <v>2.5435435435435436</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5920732859860316</v>
+        <v>1.2994653889365548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>333.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7650524956884536</v>
+        <v>0.9562066477612369</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.829021959536606</v>
+        <v>0.9569267341340467</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5073687668082307</v>
+        <v>0.8725458984453417</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.37455481878782754</v>
+        <v>0.8314175490009048</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.6936936936936937</v>
+        <v>2.339339339339339</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.1574233388920054</v>
+        <v>1.278476426005333</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.3993993993993994</v>
+        <v>0.12612612612612611</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.0990990990990991</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.08708708708708708</v>
+        <v>0.26426426426426425</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.24324324324324326</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.17117117117117117</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.10510510510510511</v>
+        <v>0.14414414414414414</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.04804804804804805</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.09309309309309309</v>
+        <v>0.34534534534534533</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5555555555555556</v>
+        <v>0.24024024024024024</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1981981981981982</v>
+        <v>0.21921921921921922</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7898663839516261</v>
+        <v>0.7602453611277913</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8070068918153882</v>
+        <v>0.795154225889903</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9005858674120495</v>
+        <v>0.8940678440240865</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.29485757426053955</v>
+        <v>0.27962824573823253</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.1815321770113565</v>
+        <v>3.881721404038028</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017642457828731518</v>
+        <v>0.018677315640037315</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.67027027027027</v>
+        <v>1.9951951951951952</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7859375409663467</v>
+        <v>0.7052563242314177</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2298017004090963</v>
+        <v>0.21178216570797914</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7615954019683517</v>
+        <v>0.7440204179983853</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7730177615998178</v>
+        <v>0.7648524765793518</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8696315368224188</v>
+        <v>0.8681931306964058</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2745230004762853</v>
+        <v>0.2654649924129885</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.4056310619201153</v>
+        <v>3.2526495089260647</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019949293328914895</v>
+        <v>0.020518377853931662</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04334463895477656</v>
+        <v>0.04697820129915068</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22964091183777408</v>
+        <v>0.21397800941453843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7624124934065539</v>
+        <v>0.7146885775008177</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.776601044820004</v>
+        <v>0.7632198605641509</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.875388251946895</v>
+        <v>0.8663927177918254</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2786320944973783</v>
+        <v>0.26370292940703466</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.476296673788312</v>
+        <v>3.2233271860663395</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.01990171042537373</v>
+        <v>0.022285454582776934</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.045430242849110486</v>
+        <v>0.04669272604687085</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22964091183777408</v>
+        <v>0.21397800941453843</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7687304349238788</v>
+        <v>0.7174610913221225</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7806441530859104</v>
+        <v>0.7626689245570331</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8757832054045659</v>
+        <v>0.8656543440451767</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2833711697077219</v>
+        <v>0.26311189415116903</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.55880257612485</v>
+        <v>3.213523231770423</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.019469364619464927</v>
+        <v>0.02208356196511415</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.043893594234600014</v>
+        <v>0.046767550481707165</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.22964091183777408</v>
+        <v>0.21267797382337442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7689872179198209</v>
+        <v>0.7657239562304943</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7831059372408633</v>
+        <v>0.7960819562952041</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.881408599676218</v>
+        <v>0.8970967848036719</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.28631161759620816</v>
+        <v>0.30253811379898315</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.6105457534377585</v>
+        <v>3.9039309216189806</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.01936430890487481</v>
+        <v>0.019075541925532628</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.0447028608278582</v>
+        <v>0.0660282182957195</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23299105009818194</v>
+        <v>0.22847973881925648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7627955581409169</v>
+        <v>0.7367348549603038</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7838227032782843</v>
+        <v>0.7689664408343103</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8692331936262556</v>
+        <v>0.8742969339511626</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2871757260850274</v>
+        <v>0.2699768115385899</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.6258326621934613</v>
+        <v>3.3283755122468284</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.019969894247081517</v>
+        <v>0.020272340714627166</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04871269505786368</v>
+        <v>0.06924989905942623</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20893326159674286</v>
+        <v>0.21023329718790684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7642762131668523</v>
+        <v>0.737637743331915</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7857049774795212</v>
+        <v>0.7694373422531926</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8711167212172879</v>
+        <v>0.8728995400407356</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2894623135210076</v>
+        <v>0.27049991242369903</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6664639628036</v>
+        <v>3.3372157910243683</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.01989675792737757</v>
+        <v>0.020156288104428162</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.048494663500883425</v>
+        <v>0.06884395266132007</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21048213011681516</v>
+        <v>0.21267797382337442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7674719863493253</v>
+        <v>0.7667061140274407</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7952135965257989</v>
+        <v>0.7985539534702193</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8540491429153624</v>
+        <v>0.9034515705209549</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3014123642410896</v>
+        <v>0.30577562584961865</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.8831366879587748</v>
+        <v>3.9641083417944643</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.01957456434890598</v>
+        <v>0.01778883261491765</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.039725686009475604</v>
+        <v>0.0731158629169196</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24216138337019888</v>
+        <v>0.22166581517525719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.770418427090352</v>
+        <v>0.7577120323284812</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.794676918912619</v>
+        <v>0.7992360636779434</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8537994087926783</v>
+        <v>0.9028410602930332</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30071956987407794</v>
+        <v>0.30667761781026415</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.8703730467322472</v>
+        <v>3.980974264201734</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.019320932634773275</v>
+        <v>0.018749658039250758</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.039974206704082416</v>
+        <v>0.07217389600373533</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.24173411869899059</v>
+        <v>0.22847973881925648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7998132349719541</v>
+        <v>0.7243056401440545</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8127767098558414</v>
+        <v>0.7724406223582112</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9103330694391675</v>
+        <v>0.861692586509118</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3253988153320371</v>
+        <v>0.27386898184532</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.341215824324084</v>
+        <v>3.394457439473857</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.016976380949004385</v>
+        <v>0.021233853044153206</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.050312489182397745</v>
+        <v>0.06870342717476535</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24216138337019888</v>
+        <v>0.20343433381040765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7891835834068844</v>
+        <v>0.7253456723141549</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8100991055008818</v>
+        <v>0.7731433285978389</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9089873432955996</v>
+        <v>0.8632566120270698</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.32156907127456197</v>
+        <v>0.27466557814465886</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.265904632190366</v>
+        <v>3.4080696142598583</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.017945479271595507</v>
+        <v>0.02123034054966306</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05138563997577941</v>
+        <v>0.06871082730339563</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.24216138337019888</v>
+        <v>0.20537668239921192</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6658971181116019</v>
+        <v>0.7083513993459035</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7255671629726008</v>
+        <v>0.6789944890337798</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7150713596010689</v>
+        <v>0.710412570344448</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5803785723608306</v>
+        <v>0.6783806022157748</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.6726726726726726</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0547102059038374</v>
+        <v>0.39924219978996367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.651531274607115</v>
+        <v>0.7243506952050833</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.7010945097127605</v>
+        <v>0.6896914177272305</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.680257852530037</v>
+        <v>0.7243558919936879</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5533583835978234</v>
+        <v>0.5798047536742779</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.186186186186186</v>
+        <v>0.7957957957957958</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.159632856908018</v>
+        <v>1.6483965503150948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6096279059888856</v>
+        <v>0.72814429173707</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6728698587800481</v>
+        <v>0.6932794063326024</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6507617407205493</v>
+        <v>0.7285726200994155</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5232859453988759</v>
+        <v>0.5707439194079179</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.7777777777777777</v>
+        <v>0.8588588588588588</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.965606675449875</v>
+        <v>1.7753044591816525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6000543698760867</v>
+        <v>0.30249045814663056</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6553573459891113</v>
+        <v>0.453935263245794</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6228286956661836</v>
+        <v>0.3688914219284795</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.48973852355997405</v>
+        <v>0.2825433497732662</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.147147147147147</v>
+        <v>0.975975975975976</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1844751135197227</v>
+        <v>0.15335414372299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6478908149839002</v>
+        <v>0.5757168148685848</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6502109494069922</v>
+        <v>0.6516046583062577</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6337598052153209</v>
+        <v>0.6187994249309398</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5351472605495062</v>
+        <v>0.4621971309970029</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.5435435435435436</v>
+        <v>3.6726726726726726</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2994653889365548</v>
+        <v>1.0547102059038374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6371792071128255</v>
+        <v>0.5730574202124781</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6365926527260695</v>
+        <v>0.6484290778368952</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6181691679872118</v>
+        <v>0.617864197351699</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5242766657996792</v>
+        <v>0.44622847389762904</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.339339339339339</v>
+        <v>4.186186186186186</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.278476426005333</v>
+        <v>1.159632856908018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6500036077654278</v>
+        <v>0.4860833943365964</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.565421380857171</v>
+        <v>0.4342813488098073</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5902263423465868</v>
+        <v>0.31209926549056527</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5012981850966627</v>
+        <v>0.2855019012459099</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7957957957957958</v>
+        <v>1.6876876876876876</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6483965503150948</v>
+        <v>1.5920732859860316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6543209828828311</v>
+        <v>0.43323890187711983</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5695474768377483</v>
+        <v>0.4288056401362303</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5945785719674355</v>
+        <v>0.30937884454935544</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4929380186139571</v>
+        <v>0.28611996718657134</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8588588588588588</v>
+        <v>2.6936936936936937</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7753044591816525</v>
+        <v>1.1574233388920054</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.451127398252732</v>
+        <v>0.6585400504359898</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.42256456194049424</v>
+        <v>0.6279765200994061</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.302061236547639</v>
+        <v>0.6116341544478079</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.2682971822117669</v>
+        <v>0.5331840609458197</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.6876876876876876</v>
+        <v>2.5435435435435436</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5920732859860316</v>
+        <v>1.2994653889365548</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>333.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4270337064163142</v>
+        <v>0.6522251597982841</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.4453734823281548</v>
+        <v>0.62314063524018</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.3285618472455155</v>
+        <v>0.6052435643074253</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.29557250976152927</v>
+        <v>0.5277255655735319</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.6936936936936937</v>
+        <v>2.339339339339339</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.1574233388920054</v>
+        <v>1.278476426005333</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.024024024024024024</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.042042042042042045</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.006006006006006006</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.26126126126126126</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4984984984984985</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.16816816816816818</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.024024024024024024</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.003003003003003003</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04504504504504504</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2012012012012012</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.14414414414414414</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5825825825825826</v>
+        <v>0.057057057057057055</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.012012012012012012</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.03303303303303303</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.015015015015015015</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.23723723723723725</v>
+        <v>0.03003003003003003</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5105105105105106</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.1921921921921922</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.012012012012012012</v>
+        <v>0.024024024024024024</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.018018018018018018</v>
+        <v>0.975975975975976</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.04804804804804805</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.26426426426426425</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.04804804804804805</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.6096096096096096</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.12612612612612611</v>
+        <v>0.024024024024024024</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.05105105105105105</v>
+        <v>0.042042042042042045</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.26426426426426425</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2702702702702703</v>
+        <v>0.26126126126126126</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.2882882882882883</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.16816816816816818</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.024024024024024024</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.003003003003003003</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.04504504504504504</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.2012012012012012</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.14414414414414414</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.05105105105105105</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.34534534534534533</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.24024024024024024</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.21921921921921922</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5825825825825826</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8018018018018018</v>
+        <v>0.3993993993993994</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.006006006006006006</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.08708708708708708</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.17117117117117117</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.036036036036036036</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.0990990990990991</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.057057057057057055</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8018018018018018</v>
+        <v>0.10510510510510511</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.003003003003003003</v>
+        <v>0.04804804804804805</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.003003003003003003</v>
+        <v>0.09309309309309309</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.03003003003003003</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.05105105105105105</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.3993993993993994</v>
+        <v>0.12612612612612611</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.0990990990990991</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.08708708708708708</v>
+        <v>0.26426426426426425</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.24324324324324326</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.17117117117117117</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.10510510510510511</v>
+        <v>0.14414414414414414</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.04804804804804805</v>
+        <v>0.05105105105105105</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.09309309309309309</v>
+        <v>0.34534534534534533</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5555555555555556</v>
+        <v>0.24024024024024024</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1981981981981982</v>
+        <v>0.21921921921921922</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
